--- a/cup/cups.xlsx
+++ b/cup/cups.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -642,6 +642,246 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>273306201</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>273306202</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>273306203</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>273306204</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>273306205</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>273306206</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>273306207</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>273306208</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>273306209</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>273306210</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>273306211</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>273306212</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>273306213</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>273306214</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>273306215</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>273306216</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cup/cups.xlsx
+++ b/cup/cups.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -882,6 +882,186 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>273306217</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>273306218</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>273306219</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>273306220</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>273306221</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>273306222</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>273306223</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>273306224</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>273306225</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>/list</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>273306226</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>273306227</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>273306228</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
